--- a/Al Sweigart/excel/invmultiple2.xlsx
+++ b/Al Sweigart/excel/invmultiple2.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -354,28 +354,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="B1" t="n">
+        <v>1</v>
+      </c>
       <c r="C1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="D1" t="n">
+      <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="E1" t="n">
+      <c r="C2" t="n">
         <v>2</v>
       </c>
-      <c r="F1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G1" t="n">
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="H1" t="n">
+      <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="I1" t="n">
-        <v>2</v>
-      </c>
-      <c r="K1" t="n">
+      <c r="C3" t="n">
         <v>4</v>
       </c>
     </row>
